--- a/Optimisation data/combined/Clinical ABC/top/RF_feature_importance/metrics_table.xlsx
+++ b/Optimisation data/combined/Clinical ABC/top/RF_feature_importance/metrics_table.xlsx
@@ -522,49 +522,49 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.8234491033640211</v>
+        <v>0.6276404405018563</v>
       </c>
       <c r="C4">
-        <v>0.03932485644646844</v>
+        <v>0.06121979750756961</v>
       </c>
       <c r="D4">
-        <v>0.6292134831460675</v>
+        <v>0.5882352941176472</v>
       </c>
       <c r="E4">
-        <v>0.6008583690987125</v>
+        <v>0.5458515283842794</v>
       </c>
       <c r="F4">
-        <v>0.6886792452830188</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="G4">
-        <v>0.6829268292682927</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="H4">
-        <v>0.5833333333333334</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="I4">
-        <v>0.7070038201344174</v>
+        <v>0.6902884516993693</v>
       </c>
       <c r="J4">
-        <v>0.7420977011494253</v>
+        <v>0.7255747126436782</v>
       </c>
       <c r="K4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O4">
-        <v>0.7658708133971291</v>
+        <v>0.7054367178970353</v>
       </c>
       <c r="P4">
-        <v>0.07284018495081455</v>
+        <v>0.02994035119622645</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -572,49 +572,49 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.7851375018092343</v>
+        <v>0.6125956191124732</v>
       </c>
       <c r="C5">
-        <v>0.02067441051373594</v>
+        <v>0.005716248713015561</v>
       </c>
       <c r="D5">
-        <v>0.6153846153846154</v>
+        <v>0.6040268456375839</v>
       </c>
       <c r="E5">
-        <v>0.5405405405405405</v>
+        <v>0.7679180887372016</v>
       </c>
       <c r="F5">
-        <v>0.7169811320754716</v>
+        <v>0.4433962264150944</v>
       </c>
       <c r="G5">
-        <v>0.8</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.9375</v>
       </c>
       <c r="I5">
-        <v>0.6894119079712625</v>
+        <v>0.4915980003721195</v>
       </c>
       <c r="J5">
-        <v>0.7219827586206896</v>
+        <v>0.4982040229885057</v>
       </c>
       <c r="K5">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="O5">
-        <v>0.5622870813397128</v>
+        <v>0.512185689090451</v>
       </c>
       <c r="P5">
-        <v>0.04559416883719228</v>
+        <v>0.06000323185312067</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -622,49 +622,49 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.6936977413870867</v>
+        <v>0.6108729882595384</v>
       </c>
       <c r="C6">
-        <v>0.03312544100067901</v>
+        <v>0.07140715576988323</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.6526315789473683</v>
       </c>
       <c r="E6">
-        <v>0.625</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="F6">
-        <v>0.660377358490566</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="G6">
-        <v>0.625</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="H6">
-        <v>0.625</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="I6">
-        <v>0.5970936460797927</v>
+        <v>0.6267814364858217</v>
       </c>
       <c r="J6">
-        <v>0.6756465517241379</v>
+        <v>0.6968390804597702</v>
       </c>
       <c r="K6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6">
-        <v>0.6363588516746411</v>
+        <v>0.6550296044343662</v>
       </c>
       <c r="P6">
-        <v>0.1108183969750727</v>
+        <v>0.05511033388910008</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -672,49 +672,49 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.7617336152219872</v>
+        <v>0.5776297060061557</v>
       </c>
       <c r="C7">
-        <v>0.02889221193379539</v>
+        <v>0.04822484832496659</v>
       </c>
       <c r="D7">
-        <v>0.5747126436781609</v>
+        <v>0.5176470588235293</v>
       </c>
       <c r="E7">
-        <v>0.5411255411255411</v>
+        <v>0.4803493449781659</v>
       </c>
       <c r="F7">
-        <v>0.6509433962264151</v>
+        <v>0.6132075471698113</v>
       </c>
       <c r="G7">
-        <v>0.6410256410256411</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="H7">
-        <v>0.5208333333333334</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="I7">
-        <v>0.6184508582204943</v>
+        <v>0.5178055413904471</v>
       </c>
       <c r="J7">
-        <v>0.6603807471264368</v>
+        <v>0.5998563218390806</v>
       </c>
       <c r="K7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O7">
-        <v>0.5885980861244019</v>
+        <v>0.6183333333333334</v>
       </c>
       <c r="P7">
-        <v>0.1068423469614598</v>
+        <v>0.04527108237573843</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -722,10 +722,10 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>0.7821035856800254</v>
+        <v>0.5398595012912438</v>
       </c>
       <c r="C8">
-        <v>0.04042455321235098</v>
+        <v>0.08100600269915967</v>
       </c>
       <c r="D8">
         <v>0.5581395348837209</v>
@@ -761,10 +761,10 @@
         <v>24</v>
       </c>
       <c r="O8">
-        <v>0.7375167464114832</v>
+        <v>0.6723356009070296</v>
       </c>
       <c r="P8">
-        <v>0.04971508853155982</v>
+        <v>0.04971244811930053</v>
       </c>
     </row>
   </sheetData>
